--- a/exports/enablements.xlsx
+++ b/exports/enablements.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,12 +389,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>se to se sd-wan</t>
+          <t>HX Sizing tool demo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-09-25 13:05:54</t>
+          <t>2019-09-19 18:34:53</t>
         </is>
       </c>
     </row>
@@ -404,42 +404,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>se to se amp</t>
+          <t>collab overview</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-09-25 13:06:11</t>
+          <t>2019-09-19 18:35:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>se to am sd wan</t>
+          <t>SD-WAN white boarding session</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-09-25 13:06:30</t>
+          <t>2019-09-19 18:35:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>se to am switching….catalyst vs nexus</t>
+          <t>ISE Demo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-09-25 13:06:53</t>
+          <t>2019-09-19 19:01:17</t>
         </is>
       </c>
     </row>
@@ -449,27 +449,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>se to se meraki qouting</t>
+          <t>active directory with Eric</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-10-04 19:41:33</t>
+          <t>2019-09-20 13:39:49</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">se to se amp demo and gfep </t>
+          <t>VLANs in Rocket Pals chat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019-11-06 15:32:28</t>
+          <t>2019-09-20 13:43:12</t>
         </is>
       </c>
     </row>
@@ -479,12 +479,192 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>se to se stealth watch at brixx</t>
+          <t>HX tech session with VSAMs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019-11-12 17:30:40</t>
+          <t>2019-09-24 00:58:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SEVT debrief</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-09-24 12:45:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SE to SE HX Discussion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-09-24 19:50:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Data Center overview with Matt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2019-09-24 19:50:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DCNM call for Sonya</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2019-09-26 19:28:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Center networking with Kevin Sonya Chris and John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-09-26 22:01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HX overview with Jimmie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-10-02 20:00:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HX sizing with Jimmie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-10-03 15:16:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rusty Blade buildout</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-10-03 15:23:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Franco HX</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2019-10-10 01:05:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSAP DevNet</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-10-10 01:05:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>East SE Meeting - Helped Marcos with ACI, HX, and more</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2019-10-11 14:58:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>East SE Meeting - Software Offerings Breakdown</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2019-10-21 12:37:24</t>
         </is>
       </c>
     </row>
